--- a/Crawling/네이버 주식 크롤링/주식_data.xlsx
+++ b/Crawling/네이버 주식 크롤링/주식_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77300</t>
+          <t>77200</t>
         </is>
       </c>
     </row>
